--- a/Báo cáo nộp/Tài liệu kiểm thử.xlsx
+++ b/Báo cáo nộp/Tài liệu kiểm thử.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Project-3---20182\Báo cáo nộp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F46974-6B2D-40F9-AC2E-7B7CDF88F61E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B55205-5541-4572-B45B-9CB82E063E5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{0FFCD99B-1C48-427C-A67A-93747C0CAA64}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="161">
   <si>
     <t>FUNCTION</t>
   </si>
@@ -506,6 +506,35 @@
   </si>
   <si>
     <t>Hệ thống hiển thị danh sách các từ để điểm danh là danh sách các từ cần được nhắc lại cho người dùng sau một khoảng thời gian 1 - 3 - 5 - 7 - 14 - 30 ngày</t>
+  </si>
+  <si>
+    <t>1. Vào chức năng điểm danh hàng ngày
+2. Thực hiện chức năng điểm danh hàng ngày 
+3. Nhập chính xác đáp án của từ cần điền
+4. Nộp bài điểm danh</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị kết quả làm bài của người dùng chính xác với đáp án và số câu làm đúng tương ứng</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị số câu làm đúng tương ứng với số câu có đáp án chính xác của người dùng</t>
+  </si>
+  <si>
+    <t>1. Vào chức năng điểm danh hàng ngày
+2. Thực hiện chức năng điểm danh hàng ngày 
+3. KHÔNG nhập đáp án và ấn nộp bài</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị yêu cầu nhập đáp án vào ô đáp án tương ứng chưa được điền</t>
+  </si>
+  <si>
+    <t>1. Vào chức năng điểm danh hàng ngày
+2. Thực hiện chức năng điểm danh hàng ngày 
+3. Nhập đáp án của từ cần điền
+4. Nộp bài điểm danh</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thống báo điểm danh không đạt yêu cầu, yêu cầu người dùng điểm danh lại</t>
   </si>
 </sst>
 </file>
@@ -751,53 +780,83 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="11" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="11" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,36 +866,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="12" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1157,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8A1C28-642A-46F6-A06E-924347C9C89F}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1174,10 +1203,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.399999999999999">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="1"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
@@ -1186,76 +1215,76 @@
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="26.4">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="26.4">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
@@ -1272,10 +1301,10 @@
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="13">
         <f>COUNTIF(F12:F13,"Passed")</f>
         <v>1</v>
@@ -1296,10 +1325,10 @@
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="13">
         <f xml:space="preserve"> COUNTIF(G12:G13,"Passed")</f>
         <v>0</v>
@@ -1346,16 +1375,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="26.4" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="26.4">
       <c r="A12" s="2" t="s">
@@ -1390,28 +1419,28 @@
       <c r="H13" s="3"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="66">
       <c r="A17" s="2" t="s">
@@ -1468,16 +1497,16 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
     </row>
     <row r="23" spans="1:8" ht="39.6">
       <c r="A23" s="2" t="s">
@@ -1542,16 +1571,16 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2"/>
@@ -1559,16 +1588,16 @@
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" ht="39.6">
       <c r="A31" s="2" t="s">
@@ -1608,33 +1637,39 @@
       <c r="C33" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="43.2">
+    <row r="34" spans="1:8" ht="79.2">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="39.6">
+        <v>154</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="79.2">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="43.2">
+        <v>154</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="52.8">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -1642,10 +1677,13 @@
         <v>78</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="52.8">
+        <v>157</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="66">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -1653,20 +1691,23 @@
         <v>79</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>68</v>
+        <v>159</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="52.8">
       <c r="A40" s="2" t="s">
@@ -1719,16 +1760,16 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
     </row>
     <row r="46" spans="1:8" ht="52.8">
       <c r="A46" s="2" t="s">
@@ -1781,16 +1822,16 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
     </row>
     <row r="52" spans="1:8" ht="52.8">
       <c r="A52" s="2" t="s">
@@ -1815,16 +1856,16 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:8" ht="52.8">
       <c r="A56" s="2" t="s">
@@ -1885,16 +1926,16 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8" ht="52.8">
       <c r="A63" s="2" t="s">
@@ -1938,16 +1979,16 @@
       <c r="A67" s="2"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:8" ht="52.8">
       <c r="A69" s="2" t="s">
@@ -1996,16 +2037,16 @@
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
     </row>
     <row r="76" spans="1:8" ht="52.8">
       <c r="A76" s="2" t="s">
@@ -2065,16 +2106,16 @@
       <c r="A82" s="2"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
     </row>
     <row r="84" spans="1:8" ht="52.8">
       <c r="A84" s="2" t="s">
@@ -2123,19 +2164,43 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="A83:H83"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:H6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -2143,30 +2208,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="A83:H83"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E13" xr:uid="{D962F811-8DC7-423A-9D86-811BAC42AFCD}">
